--- a/66-Battle System - OTB OTB战斗系统.xlsx
+++ b/66-Battle System - OTB OTB战斗系统.xlsx
@@ -12,12 +12,25 @@
     <sheet name="插件参数" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t>General OTB-Related Notetags  常规OTB 相关标签</t>
   </si>
@@ -29,6 +42,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">如果你的游戏恰好支持改变战斗系统的能力，这个标签可以让你改变技能/物品的帮助描述文本在OTB下的显示方式。
 </t>
     </r>
@@ -921,6 +941,21 @@
     </r>
   </si>
   <si>
+    <t>JS: Initial Speed:</t>
+  </si>
+  <si>
+    <t>用于计算战斗开始时的初始速度的代码。</t>
+  </si>
+  <si>
+    <t>（JS略）</t>
+  </si>
+  <si>
+    <t>JS: Speed =&gt; Order:</t>
+  </si>
+  <si>
+    <t>用于计算动作速度如何改变下一个回合顺序的代码。</t>
+  </si>
+  <si>
     <t>Turn Order Display  回合顺序显示</t>
   </si>
   <si>
@@ -1008,7 +1043,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1206,14 +1241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
@@ -1223,6 +1250,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2241,8 +2276,8 @@
   <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2477,9 +2512,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2624,95 +2659,117 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" ht="18.75" spans="1:1">
-      <c r="A18" s="3" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:3">
-      <c r="A19" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="8" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="B18" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" spans="1:1">
+      <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="8" t="s">
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:3">
+      <c r="A21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" ht="27" spans="1:3">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="2" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" ht="27" spans="1:3">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" ht="61.5" spans="1:3">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    <row r="27" ht="61.5" spans="1:3">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="9" t="s">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>85</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
